--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il21-Il21r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il21-Il21r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Il21</t>
+  </si>
+  <si>
+    <t>Il21r</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il21</t>
-  </si>
-  <si>
-    <t>Il21r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +546,40 @@
         <v>0.013101</v>
       </c>
       <c r="I2">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2643853333333334</v>
+        <v>0.5135823333333334</v>
       </c>
       <c r="N2">
-        <v>0.7931560000000001</v>
+        <v>1.540747</v>
       </c>
       <c r="O2">
-        <v>0.009945919698030544</v>
+        <v>0.0136664709952992</v>
       </c>
       <c r="P2">
-        <v>0.009961564464329605</v>
+        <v>0.01373369770362412</v>
       </c>
       <c r="Q2">
-        <v>0.001154570750666667</v>
+        <v>0.002242814049666667</v>
       </c>
       <c r="R2">
-        <v>0.010391136756</v>
+        <v>0.020185326447</v>
       </c>
       <c r="S2">
-        <v>0.0008224468869126288</v>
+        <v>0.0136664709952992</v>
       </c>
       <c r="T2">
-        <v>0.0008422977523520706</v>
+        <v>0.01373369770362412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.013101</v>
       </c>
       <c r="I3">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>8.021076000000001</v>
       </c>
       <c r="O3">
-        <v>0.1005816986668449</v>
+        <v>0.07114717893663954</v>
       </c>
       <c r="P3">
-        <v>0.1007399120063229</v>
+        <v>0.07149715887280295</v>
       </c>
       <c r="Q3">
         <v>0.011676012964</v>
@@ -638,10 +638,10 @@
         <v>0.105084116676</v>
       </c>
       <c r="S3">
-        <v>0.008317290653906169</v>
+        <v>0.07114717893663954</v>
       </c>
       <c r="T3">
-        <v>0.008518039687331542</v>
+        <v>0.07149715887280295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.013101</v>
       </c>
       <c r="I4">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.28000566666667</v>
+        <v>15.28328666666667</v>
       </c>
       <c r="N4">
-        <v>33.840017</v>
+        <v>45.84986</v>
       </c>
       <c r="O4">
-        <v>0.4243428678116139</v>
+        <v>0.4066896004525915</v>
       </c>
       <c r="P4">
-        <v>0.425010352086487</v>
+        <v>0.408690146398784</v>
       </c>
       <c r="Q4">
-        <v>0.04925978474633334</v>
+        <v>0.06674211287333334</v>
       </c>
       <c r="R4">
-        <v>0.443338062717</v>
+        <v>0.6006790158599999</v>
       </c>
       <c r="S4">
-        <v>0.03508971329060164</v>
+        <v>0.4066896004525915</v>
       </c>
       <c r="T4">
-        <v>0.03593665087152573</v>
+        <v>0.408690146398784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,40 +732,40 @@
         <v>0.013101</v>
       </c>
       <c r="I5">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1252435</v>
+        <v>0.5518605</v>
       </c>
       <c r="N5">
-        <v>0.250487</v>
+        <v>1.103721</v>
       </c>
       <c r="O5">
-        <v>0.004711538942025106</v>
+        <v>0.01468505637207403</v>
       </c>
       <c r="P5">
-        <v>0.003145966742956656</v>
+        <v>0.009838195734368921</v>
       </c>
       <c r="Q5">
-        <v>0.0005469383645</v>
+        <v>0.0024099748035</v>
       </c>
       <c r="R5">
-        <v>0.003281630187</v>
+        <v>0.014459848821</v>
       </c>
       <c r="S5">
-        <v>0.0003896060548531757</v>
+        <v>0.01468505637207403</v>
       </c>
       <c r="T5">
-        <v>0.0002660064818187256</v>
+        <v>0.009838195734368921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.013101</v>
       </c>
       <c r="I6">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,648 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.23896466666667</v>
+        <v>18.55731166666666</v>
       </c>
       <c r="N6">
-        <v>36.716894</v>
+        <v>55.67193499999999</v>
       </c>
       <c r="O6">
-        <v>0.4604179748814854</v>
+        <v>0.4938116932433957</v>
       </c>
       <c r="P6">
-        <v>0.4611422046999037</v>
+        <v>0.4962408012904201</v>
       </c>
       <c r="Q6">
-        <v>0.05344755869933334</v>
+        <v>0.08103978004833333</v>
       </c>
       <c r="R6">
-        <v>0.481028028294</v>
+        <v>0.7293580204349999</v>
       </c>
       <c r="S6">
-        <v>0.03807283203733059</v>
+        <v>0.4938116932433957</v>
       </c>
       <c r="T6">
-        <v>0.0389917712146781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.134859</v>
-      </c>
-      <c r="I7">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J7">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.2643853333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.7931560000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.009945919698030544</v>
-      </c>
-      <c r="P7">
-        <v>0.009961564464329605</v>
-      </c>
-      <c r="Q7">
-        <v>0.01188491388933333</v>
-      </c>
-      <c r="R7">
-        <v>0.106964225004</v>
-      </c>
-      <c r="S7">
-        <v>0.008466099131528144</v>
-      </c>
-      <c r="T7">
-        <v>0.008670439858365611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.134859</v>
-      </c>
-      <c r="I8">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J8">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.673692</v>
-      </c>
-      <c r="N8">
-        <v>8.021076000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1005816986668449</v>
-      </c>
-      <c r="P8">
-        <v>0.1007399120063229</v>
-      </c>
-      <c r="Q8">
-        <v>0.120190476476</v>
-      </c>
-      <c r="R8">
-        <v>1.081714288284</v>
-      </c>
-      <c r="S8">
-        <v>0.0856164796805688</v>
-      </c>
-      <c r="T8">
-        <v>0.08768294894999194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.134859</v>
-      </c>
-      <c r="I9">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J9">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.28000566666667</v>
-      </c>
-      <c r="N9">
-        <v>33.840017</v>
-      </c>
-      <c r="O9">
-        <v>0.4243428678116139</v>
-      </c>
-      <c r="P9">
-        <v>0.425010352086487</v>
-      </c>
-      <c r="Q9">
-        <v>0.5070700947336666</v>
-      </c>
-      <c r="R9">
-        <v>4.563630852603</v>
-      </c>
-      <c r="S9">
-        <v>0.3612062930049039</v>
-      </c>
-      <c r="T9">
-        <v>0.3699244943044872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.134859</v>
-      </c>
-      <c r="I10">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J10">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.1252435</v>
-      </c>
-      <c r="N10">
-        <v>0.250487</v>
-      </c>
-      <c r="O10">
-        <v>0.004711538942025106</v>
-      </c>
-      <c r="P10">
-        <v>0.003145966742956656</v>
-      </c>
-      <c r="Q10">
-        <v>0.005630071055499999</v>
-      </c>
-      <c r="R10">
-        <v>0.033780426333</v>
-      </c>
-      <c r="S10">
-        <v>0.004010524612735243</v>
-      </c>
-      <c r="T10">
-        <v>0.002738216024089116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.134859</v>
-      </c>
-      <c r="I11">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J11">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.23896466666667</v>
-      </c>
-      <c r="N11">
-        <v>36.716894</v>
-      </c>
-      <c r="O11">
-        <v>0.4604179748814854</v>
-      </c>
-      <c r="P11">
-        <v>0.4611422046999037</v>
-      </c>
-      <c r="Q11">
-        <v>0.5501781786606667</v>
-      </c>
-      <c r="R11">
-        <v>4.951603607946</v>
-      </c>
-      <c r="S11">
-        <v>0.3919139039556038</v>
-      </c>
-      <c r="T11">
-        <v>0.4013732748828542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0034905</v>
-      </c>
-      <c r="H12">
-        <v>0.006981</v>
-      </c>
-      <c r="I12">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J12">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.2643853333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.7931560000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.009945919698030544</v>
-      </c>
-      <c r="P12">
-        <v>0.009961564464329605</v>
-      </c>
-      <c r="Q12">
-        <v>0.0009228370060000001</v>
-      </c>
-      <c r="R12">
-        <v>0.005537022036000001</v>
-      </c>
-      <c r="S12">
-        <v>0.0006573736795897712</v>
-      </c>
-      <c r="T12">
-        <v>0.0004488268536119232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0034905</v>
-      </c>
-      <c r="H13">
-        <v>0.006981</v>
-      </c>
-      <c r="I13">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J13">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.673692</v>
-      </c>
-      <c r="N13">
-        <v>8.021076000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1005816986668449</v>
-      </c>
-      <c r="P13">
-        <v>0.1007399120063229</v>
-      </c>
-      <c r="Q13">
-        <v>0.009332521926000002</v>
-      </c>
-      <c r="R13">
-        <v>0.05599513155600001</v>
-      </c>
-      <c r="S13">
-        <v>0.006647928332369929</v>
-      </c>
-      <c r="T13">
-        <v>0.004538923368999428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.0034905</v>
-      </c>
-      <c r="H14">
-        <v>0.006981</v>
-      </c>
-      <c r="I14">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J14">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>11.28000566666667</v>
-      </c>
-      <c r="N14">
-        <v>33.840017</v>
-      </c>
-      <c r="O14">
-        <v>0.4243428678116139</v>
-      </c>
-      <c r="P14">
-        <v>0.425010352086487</v>
-      </c>
-      <c r="Q14">
-        <v>0.0393728597795</v>
-      </c>
-      <c r="R14">
-        <v>0.236237158677</v>
-      </c>
-      <c r="S14">
-        <v>0.02804686151610832</v>
-      </c>
-      <c r="T14">
-        <v>0.01914920691047409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.0034905</v>
-      </c>
-      <c r="H15">
-        <v>0.006981</v>
-      </c>
-      <c r="I15">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J15">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.1252435</v>
-      </c>
-      <c r="N15">
-        <v>0.250487</v>
-      </c>
-      <c r="O15">
-        <v>0.004711538942025106</v>
-      </c>
-      <c r="P15">
-        <v>0.003145966742956656</v>
-      </c>
-      <c r="Q15">
-        <v>0.00043716243675</v>
-      </c>
-      <c r="R15">
-        <v>0.001748649747</v>
-      </c>
-      <c r="S15">
-        <v>0.0003114082744366865</v>
-      </c>
-      <c r="T15">
-        <v>0.0001417442370488149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.0034905</v>
-      </c>
-      <c r="H16">
-        <v>0.006981</v>
-      </c>
-      <c r="I16">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J16">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.23896466666667</v>
-      </c>
-      <c r="N16">
-        <v>36.716894</v>
-      </c>
-      <c r="O16">
-        <v>0.4604179748814854</v>
-      </c>
-      <c r="P16">
-        <v>0.4611422046999037</v>
-      </c>
-      <c r="Q16">
-        <v>0.042720106169</v>
-      </c>
-      <c r="R16">
-        <v>0.256320637014</v>
-      </c>
-      <c r="S16">
-        <v>0.03043123888855104</v>
-      </c>
-      <c r="T16">
-        <v>0.02077715860237141</v>
+        <v>0.4962408012904201</v>
       </c>
     </row>
   </sheetData>
